--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>Bug Fixing and Re-testing.</t>
+  </si>
+  <si>
+    <t>Month : Feb</t>
+  </si>
+  <si>
+    <t>Month : Mar</t>
+  </si>
+  <si>
+    <t>Month : Apr</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -645,7 +660,7 @@
   <dimension ref="B3:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,6 +697,12 @@
       <c r="B7" s="3">
         <v>41275</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
@@ -693,6 +714,12 @@
       <c r="B8" s="3">
         <v>41276</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
@@ -704,6 +731,12 @@
       <c r="B9" s="3">
         <v>41277</v>
       </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
@@ -715,6 +748,12 @@
       <c r="B10" s="3">
         <v>41278</v>
       </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
@@ -726,6 +765,12 @@
       <c r="B11" s="3">
         <v>41279</v>
       </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
@@ -737,6 +782,12 @@
       <c r="B12" s="3">
         <v>41280</v>
       </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
       </c>
@@ -748,6 +799,12 @@
       <c r="B13" s="3">
         <v>41281</v>
       </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
@@ -759,6 +816,12 @@
       <c r="B14" s="3">
         <v>41282</v>
       </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
@@ -770,6 +833,12 @@
       <c r="B15" s="3">
         <v>41283</v>
       </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
       </c>
@@ -781,6 +850,12 @@
       <c r="B16" s="3">
         <v>41284</v>
       </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
       </c>
@@ -792,6 +867,12 @@
       <c r="B17" s="3">
         <v>41285</v>
       </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
       </c>
@@ -803,100 +884,220 @@
       <c r="B18" s="3">
         <v>41286</v>
       </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3">
         <v>41287</v>
       </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>41288</v>
       </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3">
         <v>41289</v>
       </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3">
         <v>41290</v>
       </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3">
         <v>41291</v>
       </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3">
         <v>41292</v>
       </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3">
         <v>41293</v>
       </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3">
         <v>41294</v>
       </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3">
         <v>41295</v>
       </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="3">
         <v>41296</v>
       </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3">
         <v>41297</v>
       </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="3">
         <v>41298</v>
       </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3">
         <v>41299</v>
       </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3">
         <v>41300</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="3">
         <v>41301</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="3">
         <v>41302</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="3">
         <v>41303</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="3">
         <v>41304</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" s="3">
         <v>41305</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,7 +1125,7 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -946,7 +1147,7 @@
     </row>
     <row r="7" spans="2:10" ht="19.5" customHeight="1">
       <c r="B7" s="3">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
@@ -957,7 +1158,7 @@
     </row>
     <row r="8" spans="2:10" ht="17.25" customHeight="1">
       <c r="B8" s="3">
-        <v>41276</v>
+        <v>41307</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
@@ -968,7 +1169,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
       <c r="B9" s="3">
-        <v>41277</v>
+        <v>41308</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
@@ -979,7 +1180,7 @@
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="3">
-        <v>41278</v>
+        <v>41309</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -990,7 +1191,7 @@
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
       <c r="B11" s="3">
-        <v>41279</v>
+        <v>41310</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
@@ -1001,7 +1202,7 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1">
       <c r="B12" s="3">
-        <v>41280</v>
+        <v>41311</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
@@ -1012,7 +1213,7 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1">
       <c r="B13" s="3">
-        <v>41281</v>
+        <v>41312</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
@@ -1023,7 +1224,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3">
-        <v>41282</v>
+        <v>41313</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1034,7 +1235,7 @@
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
       <c r="B15" s="3">
-        <v>41283</v>
+        <v>41314</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
@@ -1045,7 +1246,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3">
-        <v>41284</v>
+        <v>41315</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
@@ -1056,7 +1257,7 @@
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1">
       <c r="B17" s="3">
-        <v>41285</v>
+        <v>41316</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
@@ -1067,102 +1268,87 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3">
-        <v>41286</v>
+        <v>41317</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3">
-        <v>41287</v>
+        <v>41318</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
-        <v>41288</v>
+        <v>41319</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3">
-        <v>41289</v>
+        <v>41320</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3">
-        <v>41290</v>
+        <v>41321</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3">
-        <v>41291</v>
+        <v>41322</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3">
-        <v>41292</v>
+        <v>41323</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3">
-        <v>41293</v>
+        <v>41324</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3">
-        <v>41294</v>
+        <v>41325</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3">
-        <v>41295</v>
+        <v>41326</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="3">
-        <v>41296</v>
+        <v>41327</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3">
-        <v>41297</v>
+        <v>41328</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="3">
-        <v>41298</v>
+        <v>41329</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3">
-        <v>41299</v>
+        <v>41330</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3">
-        <v>41300</v>
+        <v>41331</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3">
-        <v>41301</v>
+        <v>41332</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3">
-        <v>41302</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3">
-        <v>41303</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3">
-        <v>41304</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3">
-        <v>41305</v>
+        <v>41333</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1363,7 @@
   <dimension ref="B3:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1190,7 +1376,7 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1212,7 +1398,7 @@
     </row>
     <row r="7" spans="2:10" ht="19.5" customHeight="1">
       <c r="B7" s="3">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
@@ -1223,7 +1409,7 @@
     </row>
     <row r="8" spans="2:10" ht="17.25" customHeight="1">
       <c r="B8" s="3">
-        <v>41276</v>
+        <v>41335</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
@@ -1234,7 +1420,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
       <c r="B9" s="3">
-        <v>41277</v>
+        <v>41336</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
@@ -1245,7 +1431,7 @@
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="3">
-        <v>41278</v>
+        <v>41337</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -1256,7 +1442,7 @@
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
       <c r="B11" s="3">
-        <v>41279</v>
+        <v>41338</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
@@ -1267,7 +1453,7 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1">
       <c r="B12" s="3">
-        <v>41280</v>
+        <v>41339</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
@@ -1278,7 +1464,7 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1">
       <c r="B13" s="3">
-        <v>41281</v>
+        <v>41340</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
@@ -1289,7 +1475,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3">
-        <v>41282</v>
+        <v>41341</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1300,7 +1486,7 @@
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
       <c r="B15" s="3">
-        <v>41283</v>
+        <v>41342</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
@@ -1311,7 +1497,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3">
-        <v>41284</v>
+        <v>41343</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
@@ -1322,7 +1508,7 @@
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1">
       <c r="B17" s="3">
-        <v>41285</v>
+        <v>41344</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
@@ -1333,102 +1519,102 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3">
-        <v>41286</v>
+        <v>41345</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3">
-        <v>41287</v>
+        <v>41346</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
-        <v>41288</v>
+        <v>41347</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3">
-        <v>41289</v>
+        <v>41348</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3">
-        <v>41290</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3">
-        <v>41291</v>
+        <v>41350</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3">
-        <v>41292</v>
+        <v>41351</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3">
-        <v>41293</v>
+        <v>41352</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3">
-        <v>41294</v>
+        <v>41353</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3">
-        <v>41295</v>
+        <v>41354</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="3">
-        <v>41296</v>
+        <v>41355</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3">
-        <v>41297</v>
+        <v>41356</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="3">
-        <v>41298</v>
+        <v>41357</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3">
-        <v>41299</v>
+        <v>41358</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3">
-        <v>41300</v>
+        <v>41359</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3">
-        <v>41301</v>
+        <v>41360</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3">
-        <v>41302</v>
+        <v>41361</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3">
-        <v>41303</v>
+        <v>41362</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="3">
-        <v>41304</v>
+        <v>41363</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="3">
-        <v>41305</v>
+        <v>41364</v>
       </c>
     </row>
   </sheetData>
@@ -1440,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B3:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1456,7 +1642,7 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1478,7 +1664,7 @@
     </row>
     <row r="7" spans="2:10" ht="19.5" customHeight="1">
       <c r="B7" s="3">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
@@ -1489,7 +1675,7 @@
     </row>
     <row r="8" spans="2:10" ht="17.25" customHeight="1">
       <c r="B8" s="3">
-        <v>41276</v>
+        <v>41366</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
@@ -1500,7 +1686,7 @@
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
       <c r="B9" s="3">
-        <v>41277</v>
+        <v>41367</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
@@ -1511,7 +1697,7 @@
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
       <c r="B10" s="3">
-        <v>41278</v>
+        <v>41368</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -1522,7 +1708,7 @@
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
       <c r="B11" s="3">
-        <v>41279</v>
+        <v>41369</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
@@ -1533,7 +1719,7 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1">
       <c r="B12" s="3">
-        <v>41280</v>
+        <v>41370</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
@@ -1544,7 +1730,7 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1">
       <c r="B13" s="3">
-        <v>41281</v>
+        <v>41371</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
@@ -1555,7 +1741,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3">
-        <v>41282</v>
+        <v>41372</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
@@ -1566,7 +1752,7 @@
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
       <c r="B15" s="3">
-        <v>41283</v>
+        <v>41373</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
@@ -1577,7 +1763,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3">
-        <v>41284</v>
+        <v>41374</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
@@ -1588,7 +1774,7 @@
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1">
       <c r="B17" s="3">
-        <v>41285</v>
+        <v>41375</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>25</v>
@@ -1599,102 +1785,97 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3">
-        <v>41286</v>
+        <v>41376</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3">
-        <v>41287</v>
+        <v>41377</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
-        <v>41288</v>
+        <v>41378</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3">
-        <v>41289</v>
+        <v>41379</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3">
-        <v>41290</v>
+        <v>41380</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3">
-        <v>41291</v>
+        <v>41381</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3">
-        <v>41292</v>
+        <v>41382</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="3">
-        <v>41293</v>
+        <v>41383</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="3">
-        <v>41294</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3">
-        <v>41295</v>
+        <v>41385</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="3">
-        <v>41296</v>
+        <v>41386</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3">
-        <v>41297</v>
+        <v>41387</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="3">
-        <v>41298</v>
+        <v>41388</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3">
-        <v>41299</v>
+        <v>41389</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3">
-        <v>41300</v>
+        <v>41390</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3">
-        <v>41301</v>
+        <v>41391</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3">
-        <v>41302</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3">
-        <v>41303</v>
+        <v>41393</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="3">
-        <v>41304</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3">
-        <v>41305</v>
+        <v>41394</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +668,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -1028,10 +1028,10 @@
         <v>41299</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1039,10 +1039,10 @@
         <v>41300</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1050,10 +1050,10 @@
         <v>41301</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -1061,10 +1061,10 @@
         <v>41302</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -1112,7 +1112,7 @@
   <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1120,7 +1120,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" customWidth="1"/>
+    <col min="10" max="10" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -1149,6 +1149,12 @@
       <c r="B7" s="3">
         <v>41306</v>
       </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1160,6 +1166,12 @@
       <c r="B8" s="3">
         <v>41307</v>
       </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1171,6 +1183,12 @@
       <c r="B9" s="3">
         <v>41308</v>
       </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1182,6 +1200,12 @@
       <c r="B10" s="3">
         <v>41309</v>
       </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1193,6 +1217,12 @@
       <c r="B11" s="3">
         <v>41310</v>
       </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1204,6 +1234,12 @@
       <c r="B12" s="3">
         <v>41311</v>
       </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1215,6 +1251,12 @@
       <c r="B13" s="3">
         <v>41312</v>
       </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1226,6 +1268,12 @@
       <c r="B14" s="3">
         <v>41313</v>
       </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1236,6 +1284,12 @@
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
       <c r="B15" s="3">
         <v>41314</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
@@ -1363,7 +1417,7 @@
   <dimension ref="B3:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,7 +1425,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" customWidth="1"/>
+    <col min="10" max="10" width="69.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -1628,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1637,7 +1691,7 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.28515625" customWidth="1"/>
+    <col min="10" max="10" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Month : Jan</t>
-  </si>
-  <si>
     <t>Activity Code</t>
   </si>
   <si>
@@ -200,19 +197,37 @@
     <t>Bug Fixing and Re-testing.</t>
   </si>
   <si>
-    <t>Month : Feb</t>
-  </si>
-  <si>
-    <t>Month : Mar</t>
-  </si>
-  <si>
-    <t>Month : Apr</t>
-  </si>
-  <si>
     <t>OFF</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Vikrantsingh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll No : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month : </t>
+  </si>
+  <si>
+    <t>MT2012036</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>FEB</t>
   </si>
 </sst>
 </file>
@@ -256,7 +271,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,9 +355,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +383,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,447 +681,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B7" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B7" s="3">
-        <v>41275</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B8" s="2">
+        <v>41276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B8" s="3">
-        <v>41276</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1">
+      <c r="B9" s="2">
+        <v>41277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="3">
-        <v>41277</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B10" s="2">
+        <v>41278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="3">
-        <v>41278</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="2">
+        <v>41279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="3">
-        <v>41279</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2">
+        <v>41280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B12" s="3">
-        <v>41280</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="7" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2">
+        <v>41281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B13" s="3">
-        <v>41281</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>41282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="3">
-        <v>41282</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B15" s="2">
+        <v>41283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B15" s="3">
-        <v>41283</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7" t="s">
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>41284</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3">
-        <v>41284</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B17" s="2">
+        <v>41285</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B17" s="3">
-        <v>41285</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>41286</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>41287</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>41288</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>41289</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>41290</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>41291</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41292</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>41293</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>41294</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>41295</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>41296</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>41297</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>41298</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>41299</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>41300</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>41301</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>41302</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>41303</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>41304</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>41305</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J34"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1123,285 +1167,304 @@
     <col min="10" max="10" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="1" t="s">
-        <v>27</v>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B7" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B7" s="3">
-        <v>41306</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B8" s="2">
+        <v>41307</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B8" s="3">
-        <v>41307</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>41308</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>41309</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>41310</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2">
+        <v>41311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B12" s="3">
-        <v>41311</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="7" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2">
+        <v>41312</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B13" s="3">
-        <v>41312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>41313</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="3">
-        <v>41313</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>41314</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7" t="s">
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>41315</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3">
-        <v>41315</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B17" s="2">
+        <v>41316</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B17" s="3">
-        <v>41316</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>41317</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>41318</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>41319</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>41320</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>41321</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>41322</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41323</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>41324</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>41325</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>41326</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>41327</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>41328</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>41329</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>41330</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>41331</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>41332</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>41333</v>
       </c>
     </row>
@@ -1414,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J37"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1428,246 +1491,265 @@
     <col min="10" max="10" width="69.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B7" s="2">
+        <v>41334</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B7" s="3">
-        <v>41334</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B8" s="2">
+        <v>41335</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B8" s="3">
-        <v>41335</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1">
+      <c r="B9" s="2">
+        <v>41336</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="3">
-        <v>41336</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B10" s="2">
+        <v>41337</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="3">
-        <v>41337</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="2">
+        <v>41338</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="3">
-        <v>41338</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2">
+        <v>41339</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B12" s="3">
-        <v>41339</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="7" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2">
+        <v>41340</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B13" s="3">
-        <v>41340</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>41341</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="3">
-        <v>41341</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B15" s="2">
+        <v>41342</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B15" s="3">
-        <v>41342</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7" t="s">
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>41343</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3">
-        <v>41343</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B17" s="2">
+        <v>41344</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B17" s="3">
-        <v>41344</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>41345</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>41346</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>41347</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>41348</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>41349</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>41350</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41351</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>41352</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>41353</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>41354</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>41355</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>41356</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>41357</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>41358</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>41359</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>41360</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>41361</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>41362</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>41363</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>41364</v>
       </c>
     </row>
@@ -1680,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J36"/>
+  <dimension ref="B2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1694,241 +1776,260 @@
     <col min="10" max="10" width="73.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="3" spans="2:10">
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1">
+      <c r="B7" s="2">
+        <v>41365</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B7" s="3">
-        <v>41365</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="5" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="17.25" customHeight="1">
+      <c r="B8" s="2">
+        <v>41366</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B8" s="3">
-        <v>41366</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="18" customHeight="1">
+      <c r="B9" s="2">
+        <v>41367</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="3">
-        <v>41367</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B10" s="2">
+        <v>41368</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B10" s="3">
-        <v>41368</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="2">
+        <v>41369</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1">
-      <c r="B11" s="3">
-        <v>41369</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B12" s="2">
+        <v>41370</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B12" s="3">
-        <v>41370</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="7" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="2">
+        <v>41371</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B13" s="3">
-        <v>41371</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="2">
+        <v>41372</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="3">
-        <v>41372</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B15" s="2">
+        <v>41373</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B15" s="3">
-        <v>41373</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7" t="s">
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="2">
+        <v>41374</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3">
-        <v>41374</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="7" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B17" s="2">
+        <v>41375</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B17" s="3">
-        <v>41375</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>41376</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>41377</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>41378</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>41379</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>41380</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>41381</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41382</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>41383</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>41384</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>41385</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>41386</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>41387</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>41388</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>41389</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>41390</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>41391</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>41392</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>41393</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>41394</v>
       </c>
     </row>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1364,6 +1364,12 @@
     <row r="16" spans="2:10">
       <c r="B16" s="2">
         <v>41315</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>22</v>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -622,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,23 +1982,47 @@
       <c r="B19" s="2">
         <v>41319</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="2">
         <v>41320</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2">
